--- a/trunk/toolbox_data/species/smhi_species.xlsx
+++ b/trunk/toolbox_data/species/smhi_species.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="1020" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="7220" yWindow="1540" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="taxa_utf16.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Scientific name</t>
   </si>
@@ -33,22 +33,19 @@
     <t>Parent name</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>Kingdom</t>
   </si>
   <si>
-    <t>New kingdom</t>
-  </si>
-  <si>
-    <t>New class</t>
-  </si>
-  <si>
-    <t>Unicell</t>
+    <t>Eukaryota</t>
+  </si>
+  <si>
+    <t>Unidentified coccoid eukaryots</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Unidentified flagellated eukaryots</t>
   </si>
 </sst>
 </file>
@@ -97,17 +94,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,13 +445,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -466,32 +471,32 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
